--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Core.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Core.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr_optimization\gr_optimization\Input_Output\BuyflowValidation\Merchandising Input\JLoBeauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA5DEA2-CEFA-4DA7-B06E-8ED11C39B03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC012FE0-96BC-479A-A22E-02C7DCCC9DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43C12A42-7869-404B-B07E-F61A7765EBFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -54,27 +57,364 @@
     <t>Venue ID</t>
   </si>
   <si>
+    <t>Recommendation Type</t>
+  </si>
+  <si>
+    <t>www.jlobeauty.com</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>CCJLA33R</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Deluxe</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Entry Kit</t>
+  </si>
+  <si>
+    <t>Tile position</t>
+  </si>
+  <si>
+    <t>1 </t>
+  </si>
+  <si>
+    <t>Actual Kit Name (as in site)</t>
+  </si>
+  <si>
+    <t>JLo's Deluxe Kit</t>
+  </si>
+  <si>
+    <t>JLo's Core Kit</t>
+  </si>
+  <si>
+    <t>Default selection</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Entry Product Group ID</t>
+  </si>
+  <si>
+    <t>JLPG005</t>
+  </si>
+  <si>
+    <t>JLPG004</t>
+  </si>
+  <si>
+    <t>Entry PPID</t>
+  </si>
+  <si>
+    <t>JL2A0041</t>
+  </si>
+  <si>
+    <t>JL2A0038</t>
+  </si>
+  <si>
+    <t>Entry piece count</t>
+  </si>
+  <si>
+    <t>5-piece</t>
+  </si>
+  <si>
+    <t>Entry Supply Size</t>
+  </si>
+  <si>
+    <t>30-day</t>
+  </si>
+  <si>
+    <t>Entry Payments</t>
+  </si>
+  <si>
+    <t>Entry striked-out price</t>
+  </si>
+  <si>
+    <t>Entry Pricing</t>
+  </si>
+  <si>
+    <t>Entry Shipping</t>
+  </si>
+  <si>
+    <t>Entry Renewal Plan</t>
+  </si>
+  <si>
+    <t>RJLA4A6</t>
+  </si>
+  <si>
+    <t>RJLA4A3</t>
+  </si>
+  <si>
+    <t>Entry Cart Language</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>One month after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of JLo's Deluxe Kit. Each shipment will be charged to the card you provide today, approximately every month at the low price of $69.99 plus $3.99 for shipping and handling, unless you call to cancel.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+All orders are subject to applicable sales tax.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>One month after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of JLo's Core Kit. Each shipment will be charged to the card you provide today, approximately every month at the low price of $49.99 plus $2.99 for shipping and handling, unless you call to cancel.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+All orders are subject to applicable sales tax.</t>
+    </r>
+  </si>
+  <si>
+    <t>Entry Supplemental Cart Language</t>
+  </si>
+  <si>
+    <t>I understand that one month after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of JLO's Deluxe Kit. Each full-size shipment will be charged in three payment of $69.95 plus $3.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account</t>
+  </si>
+  <si>
+    <t>I understand that one month after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of JLO's Core Kit. Each full-size shipment will be charged in three payment of $49.95 plus $2.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account</t>
+  </si>
+  <si>
+    <t>Entry Promotion 1</t>
+  </si>
+  <si>
+    <t>Free Gift JL2A0053</t>
+  </si>
+  <si>
+    <t>Free Gift JL2A0052</t>
+  </si>
+  <si>
+    <t>Entry Promotion 2</t>
+  </si>
+  <si>
+    <t>Free Standard Shipping</t>
+  </si>
+  <si>
+    <t>Entry Promotion 3</t>
+  </si>
+  <si>
+    <t>Entry Kit Pricebook Promotion</t>
+  </si>
+  <si>
+    <t>Entry Promotion 4</t>
+  </si>
+  <si>
+    <t>Entry Promotion 5</t>
+  </si>
+  <si>
+    <t>Entry Promotion 6</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell to</t>
+  </si>
+  <si>
+    <t>JL2A0042</t>
+  </si>
+  <si>
+    <t>JL2A0039</t>
+  </si>
+  <si>
+    <t>Post Purchase Renewal Plan</t>
+  </si>
+  <si>
+    <t>RJLA4A7</t>
+  </si>
+  <si>
+    <t>RJLA4A4</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Pricing</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Shipping</t>
+  </si>
+  <si>
+    <t>Post Purchase Payments</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Payment Plan (Installment)</t>
+  </si>
+  <si>
+    <t>IJLA39D</t>
+  </si>
+  <si>
+    <t>IJLA39E</t>
+  </si>
+  <si>
+    <t>Post Purchase Cart Language</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of JLo's Deluxe Kit. Each shipment will be charged to the card you provide today, in three payments at the low price of $69.95 plus $3.99 for shipping and handling, unless you call to cancel.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>All orders are subject to applicable sales tax.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of JLo's Core Kit. Each shipment will be charged to the card you provide today, in three payments at the low price of $49.95 plus $2.99 for shipping and handling, unless you call to cancel.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>All orders are subject to applicable sales tax.</t>
+    </r>
+  </si>
+  <si>
+    <t>Post Purchase Supplemental Cart Language</t>
+  </si>
+  <si>
+    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of JLo's Deluxe Kit. Each full-size shipment will be charged in three payment of $69.95 plus $3.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account</t>
+  </si>
+  <si>
+    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of JLo's Core Kit. Each full-size shipment will be charged in three payment of $49.95 plus $2.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account</t>
+  </si>
+  <si>
+    <t>Post Purchase Installment Language</t>
+  </si>
+  <si>
+    <t>You will be charged 3 monthly payments:
+• 1st Payment: $69.95 charged today (Free Standard S&amp;H)
+• 2nd Payment: $69.95 charged one month from today
+• 3rd Payment: $69.95 charged two months from today</t>
+  </si>
+  <si>
+    <t>You will be charged 3 monthly payments:
+• 1st Payment: $49.95 charged today (Free Standard S&amp;H)
+• 2nd Payment: $49.95 charged one month from today
+• 3rd Payment: $49.95 charged two months from today</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 1</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 2</t>
+  </si>
+  <si>
+    <t>Free Shipping</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 3</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 4</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 5</t>
+  </si>
+  <si>
+    <t>Post Purchase Upsell Promotion 6</t>
+  </si>
+  <si>
+    <t>Continuity piece count</t>
+  </si>
+  <si>
+    <t>Continuity Supply Size</t>
+  </si>
+  <si>
+    <t>90 Day</t>
+  </si>
+  <si>
+    <t>Continuity PPID</t>
+  </si>
+  <si>
+    <t>JL2A0040</t>
+  </si>
+  <si>
+    <t>JL2A0043</t>
+  </si>
+  <si>
+    <t>Continuity Payments</t>
+  </si>
+  <si>
+    <t>Continuity Payment Plan</t>
+  </si>
+  <si>
+    <t>IJLA39F</t>
+  </si>
+  <si>
+    <t>Continuity Pricing (product)</t>
+  </si>
+  <si>
+    <t>Continuity Shipping</t>
+  </si>
+  <si>
+    <t>Continuity S&amp;H number of payments</t>
+  </si>
+  <si>
     <t>End</t>
-  </si>
-  <si>
-    <t>https://www.jlobeauty.com</t>
-  </si>
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>CCJLA33R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,41 +431,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF172B4D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF172B4D"/>
-      <name val="-Apple-System"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -139,12 +452,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -153,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -171,11 +499,48 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -184,13 +549,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -202,7 +567,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -213,17 +580,118 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -236,90 +704,36 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -327,37 +741,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -367,6 +764,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -374,7 +816,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -682,125 +1124,615 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CA6F8B-2B09-4DCD-B7E3-E88E9B6957A2}">
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="41.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H2" s="8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="22">
+        <v>89.95</v>
+      </c>
+      <c r="C22" s="22">
+        <v>69.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="22">
+        <v>69.95</v>
+      </c>
+      <c r="C23" s="22">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="22">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="26">
+        <v>209.85</v>
+      </c>
+      <c r="C36" s="21">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="26">
+        <v>0</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="21">
+        <v>3</v>
+      </c>
+      <c r="C38" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="22"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="21">
+        <v>5</v>
+      </c>
+      <c r="C49" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="21">
+        <v>3</v>
+      </c>
+      <c r="C52" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="21">
+        <v>210.85</v>
+      </c>
+      <c r="C54" s="21">
+        <v>149.85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="21">
+        <v>11.97</v>
+      </c>
+      <c r="C55" s="21">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="21">
+        <v>3</v>
+      </c>
+      <c r="C56" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{312C2DED-414A-4633-8E03-89FF40BACF2D}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{A7583BAB-8540-4010-B74B-E2C934DA9A48}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A8786E4-3E12-4E6B-BAD7-A75D755C2D3F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{C533B2E5-7625-4608-8E60-455A7E023F82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -987,7 +1919,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5B233D-F6E8-4965-B5BF-D036B91DE2E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -996,7 +1928,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F04B84ED-6DF6-4A1C-87AB-69AA066F1008}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1004,7 +1936,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56371EFC-A2D2-4260-8487-DBA71C266F53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Core.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Core.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr_optimization\gr_optimization\Input_Output\BuyflowValidation\Merchandising Input\JLoBeauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC012FE0-96BC-479A-A22E-02C7DCCC9DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7780327D-9846-4D1E-A9FB-D1AC42D2A2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43C12A42-7869-404B-B07E-F61A7765EBFE}"/>
   </bookViews>
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -802,6 +802,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,9 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CA6F8B-2B09-4DCD-B7E3-E88E9B6957A2}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1266,11 +1274,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -1633,7 +1641,7 @@
       <c r="B48" s="26"/>
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>85</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>86</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>88</v>
       </c>
@@ -1666,7 +1674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>91</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>92</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>94</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>149.85</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>95</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>96</v>
       </c>
@@ -1721,8 +1729,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1739,12 +1754,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1753,7 +1762,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -1918,16 +1927,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5B233D-F6E8-4965-B5BF-D036B91DE2E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F04B84ED-6DF6-4A1C-87AB-69AA066F1008}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1935,7 +1941,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56371EFC-A2D2-4260-8487-DBA71C266F53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1952,4 +1958,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5B233D-F6E8-4965-B5BF-D036B91DE2E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>